--- a/biology/Médecine/Philippe_Monod-Broca/Philippe_Monod-Broca.xlsx
+++ b/biology/Médecine/Philippe_Monod-Broca/Philippe_Monod-Broca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe Monod-Broca, né le 9 juin 1918 à Angers et mort le 2 août 2006 à Cravent[1], est un chirurgien français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Monod-Broca, né le 9 juin 1918 à Angers et mort le 2 août 2006 à Cravent, est un chirurgien français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Monod-Broca est issu de deux familles protestantes. Par son père, le chirurgien Raoul-Charles Monod, il est l'arrière petit-fils de Gustave Monod, le fondateur de l'Académie nationale de chirurgie. Par sa mère il est l'arrière petit-fils de Paul Broca.
 En 1942 il épouse la chirurgienne Claude Debré, fille du pédiatre Robert Debré. Ils ont ensemble cinq enfants : Jeanne-Charlotte (qui épousera le journaliste radiophonique et militant de la protection de la nature Jean Carlier (1922-2011)), Martine, Denis, Alain et Lise (qui épousera Xavier Driencourt).
@@ -544,7 +558,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Chirurgie du vieillard (1968)
 Les Urgences chirurgicales (1982)
